--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,47 +462,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>otis@gmail.com</t>
+          <t>adam@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>otis</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mellburn</t>
+          <t>Mettews</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45127.68550306014</v>
+        <v>45128.7368401979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adam@gmail.com</t>
+          <t>ottis@gmail.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Ottis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Keen</t>
+          <t>Mellburn</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45127.6857618335</v>
+        <v>45128.74729519995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ruby@icloud.com</t>
+          <t>ruby@yahoo.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -516,7 +516,27 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45127.68614546927</v>
+        <v>45128.74729521712</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>issac@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Issac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Newton</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45128.74729522832</v>
       </c>
     </row>
   </sheetData>

--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -462,21 +462,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adam@gmail.com</t>
+          <t>bruce@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Bruce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mettews</t>
+          <t>Wayne</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45128.7368401979</v>
+        <v>45131.5644113271</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45128.74729519995</v>
+        <v>45131.60717907707</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45128.74729521712</v>
+        <v>45131.60718010938</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45128.74729522832</v>
+        <v>45131.60718113895</v>
       </c>
     </row>
   </sheetData>
